--- a/Doc/EDF Analysis.xlsx
+++ b/Doc/EDF Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MF\Personal\Intellectual\Embedded_SW\EgFWD\Advanced Embedded Systems\Course Material\RTOS\RTOS_SourceFiles\FreeRTOSv202112.00\FreeRTOS\Demo\RTOS_EDF_Scheduler_Project\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93294388-F299-48F3-AFC6-5A7EB062EB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494ECEA2-7446-4669-9B6D-C4347851974E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6CDFFFD7-E2CF-4A8B-A352-0E908AB31361}"/>
   </bookViews>
@@ -34,9 +34,84 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+  <si>
+    <t>Task 1</t>
+  </si>
+  <si>
+    <t>Task 2</t>
+  </si>
+  <si>
+    <t>Task 3</t>
+  </si>
+  <si>
+    <t>Task 4</t>
+  </si>
+  <si>
+    <t>Task name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Periodicity(ms) </t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>20ms</t>
+  </si>
+  <si>
+    <t>40ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50ms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10ms </t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>Hyper Period</t>
+  </si>
+  <si>
+    <t>Max (us)</t>
+  </si>
+  <si>
+    <t>Execution Time (us)</t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Peridicity (ms)</t>
+  </si>
+  <si>
+    <t>Expected worst case
+Execution Time (usec)</t>
+  </si>
+  <si>
+    <t>Task execution Time during Hyper Period (200ms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Execution During Hyper Period </t>
+  </si>
+  <si>
+    <t>CPU load %</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,16 +119,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -62,22 +182,96 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -85,6 +279,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -393,59 +592,462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27472322-B058-43E0-B473-93A72FD3F7DD}">
-  <dimension ref="D10:V11"/>
+  <dimension ref="A3:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="10" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="4:22" x14ac:dyDescent="0.35">
-      <c r="D11" s="1">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5">
+        <v>13.3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>24.6</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="26" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="I8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="7">
+        <v>25.15</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="I9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>10</v>
+      </c>
+      <c r="K9" s="4">
+        <f>MAX(B7:B27)</f>
+        <v>14</v>
+      </c>
+      <c r="L9" s="4">
+        <f>(200/J9)*K9*(1/1000)</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>30</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1">
+      <c r="B10" s="5">
+        <v>13.35</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="I10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>50</v>
+      </c>
+      <c r="K10" s="4">
+        <f>MAX(C7:C27)</f>
+        <v>24.9</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" ref="L10:L12" si="0">(200/J10)*K10*(1/1000)</f>
+        <v>9.9599999999999994E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <f>A10+10</f>
         <v>40</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1">
+      <c r="B11" s="5">
+        <v>13.9</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="7">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8">
+        <v>15.78</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>20</v>
+      </c>
+      <c r="K11" s="4">
+        <f>MAX(D7:D27)</f>
+        <v>25.2</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <f t="shared" ref="A12:A27" si="1">A11+10</f>
         <v>50</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1">
+      <c r="B12" s="5">
+        <v>13.38</v>
+      </c>
+      <c r="C12" s="6">
+        <v>24.9</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="I12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
+        <v>40</v>
+      </c>
+      <c r="K12" s="4">
+        <f>MAX(E7:E27)</f>
+        <v>15.78</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1">
+      <c r="B13" s="5">
+        <v>13.4</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="7">
+        <v>25.2</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="I13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="4">
+        <f>SUM(L9:L12)</f>
+        <v>0.71050000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1">
+      <c r="B14" s="5">
+        <v>13.6</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="I14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="4">
+        <f>(L13/200) *100</f>
+        <v>0.35525000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="U11" s="1">
+      <c r="B15" s="5">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="7">
+        <v>25</v>
+      </c>
+      <c r="E15" s="8">
+        <v>15.4</v>
+      </c>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="V11" s="1">
+      <c r="B16" s="5">
+        <v>13.6</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Doc/EDF Analysis.xlsx
+++ b/Doc/EDF Analysis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MF\Personal\Intellectual\Embedded_SW\EgFWD\Advanced Embedded Systems\Course Material\RTOS\RTOS_SourceFiles\FreeRTOSv202112.00\FreeRTOS\Demo\RTOS_EDF_Scheduler_Project\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494ECEA2-7446-4669-9B6D-C4347851974E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5076552-93F0-4545-931A-AA352CA73F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6CDFFFD7-E2CF-4A8B-A352-0E908AB31361}"/>
   </bookViews>
   <sheets>
-    <sheet name="Demo Taska Static Analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="Demo Taska Static Analysis" sheetId="2" r:id="rId1"/>
+    <sheet name="Demo Taska Static Analysis_obse" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
   <si>
     <t>Task 1</t>
   </si>
@@ -105,13 +106,165 @@
   </si>
   <si>
     <t>CPU load %</t>
+  </si>
+  <si>
+    <t>Rate Monotonic Utilization</t>
+  </si>
+  <si>
+    <t>URM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">n ((2 ^ (1/n)) - 1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schedulability Condition   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U &lt;= URM  </t>
+  </si>
+  <si>
+    <t>0.67 &lt; 0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition FullFilled </t>
+  </si>
+  <si>
+    <t>Time Demand Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (P) Peridicity (ms)</t>
+  </si>
+  <si>
+    <t>(E) Expected worst case
+Execution Time (msec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simso Simulation </t>
+  </si>
+  <si>
+    <t>HyperPeriod
+(Critical Instance)</t>
+  </si>
+  <si>
+    <t>W(10)</t>
+  </si>
+  <si>
+    <t>W(20)</t>
+  </si>
+  <si>
+    <t>W(30)</t>
+  </si>
+  <si>
+    <t>W(40)</t>
+  </si>
+  <si>
+    <t>W(50)</t>
+  </si>
+  <si>
+    <t>W(60)</t>
+  </si>
+  <si>
+    <t>W(70)</t>
+  </si>
+  <si>
+    <t>W(80)</t>
+  </si>
+  <si>
+    <t>W(90)</t>
+  </si>
+  <si>
+    <t>W(100)</t>
+  </si>
+  <si>
+    <t>W(110)</t>
+  </si>
+  <si>
+    <t>W(120)</t>
+  </si>
+  <si>
+    <t>W(130)</t>
+  </si>
+  <si>
+    <t>W(140)</t>
+  </si>
+  <si>
+    <t>W(150)</t>
+  </si>
+  <si>
+    <t>W(160)</t>
+  </si>
+  <si>
+    <t>W(170)</t>
+  </si>
+  <si>
+    <t>W(180)</t>
+  </si>
+  <si>
+    <t>W(190)</t>
+  </si>
+  <si>
+    <t>W(200)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Instance </t>
+  </si>
+  <si>
+    <t>T1 (P: 10ms)</t>
+  </si>
+  <si>
+    <t>T2 (P: 50ms)</t>
+  </si>
+  <si>
+    <t>T3 (P: 20ms)</t>
+  </si>
+  <si>
+    <t>T4 (P: 40ms)</t>
+  </si>
+  <si>
+    <t>Calculate Time needed against Time provided for each Task</t>
+  </si>
+  <si>
+    <t>Actually measured CPU Load</t>
+  </si>
+  <si>
+    <t>Order Tasks based on it's Priority (earliest DeadLine (Period) is higher Priority), Assuming DeadLine equal Periodicity (D = P)</t>
+  </si>
+  <si>
+    <t>Schedulability (OK)</t>
+  </si>
+  <si>
+    <t>Schedulability Status</t>
+  </si>
+  <si>
+    <t>Periodicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W(t) &lt; D  </t>
+  </si>
+  <si>
+    <t>Schedulability Condition</t>
+  </si>
+  <si>
+    <t>System Schedulability</t>
+  </si>
+  <si>
+    <t>Results CPU Load</t>
+  </si>
+  <si>
+    <t>Computation Time</t>
+  </si>
+  <si>
+    <t>Gantt Chart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +293,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +336,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -233,15 +409,237 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -251,26 +649,130 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -293,6 +795,319 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>993775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Text&#10;&#10;Description automatically generated with medium confidence">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BEAE57D-A4A9-64B8-7A6C-49809486DD93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534025" y="4146550"/>
+          <a:ext cx="6019800" cy="855345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1068882</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>15758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3020BBE1-652C-7212-E05F-1FCB8A9BB43F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5584825" y="8416925"/>
+          <a:ext cx="7650657" cy="933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1240864</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>327376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD7269F-9734-8E74-ED52-68AE7B43018A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7388225" y="3203575"/>
+          <a:ext cx="4406339" cy="317851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>17350</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>110161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6416D7-C06B-FBCC-700A-4D300CCA23CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14735175" y="9925050"/>
+          <a:ext cx="13590475" cy="7723811"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>551861</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>18713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095DE120-44D5-D401-FD86-33B472F9FB57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="17335500"/>
+          <a:ext cx="4717461" cy="2698413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1256588</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>34540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BDCDCC-D13A-6C06-3864-248064AD29DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6127750" y="20396200"/>
+          <a:ext cx="5695238" cy="3076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>166244</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>190000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F76F22-A1F9-C2D3-C637-85EDADCEAFEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6127750" y="24015700"/>
+          <a:ext cx="16247619" cy="4000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -591,453 +1406,1694 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C88A3F6-0E45-45BF-9D0F-762579ACC3E5}">
+  <dimension ref="A8:O141"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D112" workbookViewId="0">
+      <selection activeCell="M142" sqref="M142"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="9:13" ht="38.25">
+      <c r="I8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="9:13">
+      <c r="I9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+      <c r="K9" s="3">
+        <f>MAX(B50:B70)</f>
+        <v>796</v>
+      </c>
+      <c r="L9" s="3">
+        <f>(200/J9)*K9*(1/1000)</f>
+        <v>15.92</v>
+      </c>
+      <c r="M9" s="3">
+        <f>K9/1000</f>
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="9:13">
+      <c r="I10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>50</v>
+      </c>
+      <c r="K10" s="3">
+        <f>MAX(C50:C70)</f>
+        <v>4502</v>
+      </c>
+      <c r="L10" s="3">
+        <f>(200/J10)*K10*(1/1000)</f>
+        <v>18.007999999999999</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" ref="M10:M12" si="0">K10/1000</f>
+        <v>4.5019999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="9:13">
+      <c r="I11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>20</v>
+      </c>
+      <c r="K11" s="3">
+        <f>MAX(D50:D70)</f>
+        <v>7876</v>
+      </c>
+      <c r="L11" s="3">
+        <f>(200/J11)*K11*(1/1000)</f>
+        <v>78.760000000000005</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="0"/>
+        <v>7.8760000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="9:13">
+      <c r="I12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
+        <v>40</v>
+      </c>
+      <c r="K12" s="3">
+        <f>MAX(E50:E70)</f>
+        <v>4595</v>
+      </c>
+      <c r="L12" s="3">
+        <f>(200/J12)*K12*(1/1000)</f>
+        <v>22.975000000000001</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5949999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="9:13">
+      <c r="I13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="3">
+        <f>SUM(L9:L12)</f>
+        <v>135.66300000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="9:13">
+      <c r="I14" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="10">
+        <f>(L13/200) *100</f>
+        <v>67.831500000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="9:13" ht="18">
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="9:13" ht="27" customHeight="1">
+      <c r="I16" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+    </row>
+    <row r="19" spans="9:15">
+      <c r="I19" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+    </row>
+    <row r="20" spans="9:15">
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+    </row>
+    <row r="26" spans="9:15">
+      <c r="J26" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="9:15" ht="30.75" customHeight="1">
+      <c r="I27" s="12"/>
+      <c r="J27" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="9:15">
+      <c r="J28" s="37">
+        <f xml:space="preserve"> M27 * ((2 ^ (1/M27)) - 1)</f>
+        <v>0.75682846001088411</v>
+      </c>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+    </row>
+    <row r="31" spans="9:15" ht="15.75" thickBot="1"/>
+    <row r="32" spans="9:15" ht="15" customHeight="1">
+      <c r="I32" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="42"/>
+      <c r="K32" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="49"/>
+      <c r="M32" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="45"/>
+      <c r="O32" s="46"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" thickBot="1">
+      <c r="I33" s="43"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="50"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="48"/>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="40" spans="1:15">
+      <c r="I40" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+    </row>
+    <row r="43" spans="1:15" ht="15" customHeight="1"/>
+    <row r="46" spans="1:15">
+      <c r="A46" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+    </row>
+    <row r="47" spans="1:15" ht="18" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A49" s="2"/>
+      <c r="B49" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="54"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="N49" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="O49" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="26.25" customHeight="1">
+      <c r="A50" s="3">
+        <v>0</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5">
+        <v>3507</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K50" s="15">
+        <v>10</v>
+      </c>
+      <c r="L50" s="15">
+        <v>20</v>
+      </c>
+      <c r="M50" s="15">
+        <v>40</v>
+      </c>
+      <c r="N50" s="15">
+        <v>50</v>
+      </c>
+      <c r="O50" s="31"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="3">
+        <v>10</v>
+      </c>
+      <c r="B51" s="4">
+        <v>795</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="I51" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" s="3">
+        <v>10</v>
+      </c>
+      <c r="K51" s="3">
+        <f>B71/1000</f>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="17"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="3">
+        <v>20</v>
+      </c>
+      <c r="B52" s="4">
+        <v>796</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="6">
+        <v>7856</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="I52" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J52" s="3">
+        <v>20</v>
+      </c>
+      <c r="K52" s="3">
+        <f>K51</f>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L52" s="3">
+        <f>(D71/1000)+(K52*(J52/K50))</f>
+        <v>9.468</v>
+      </c>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="17"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="3">
+        <v>30</v>
+      </c>
+      <c r="B53" s="4">
+        <v>776</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="I53" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53" s="3">
+        <v>30</v>
+      </c>
+      <c r="K53" s="3">
+        <f t="shared" ref="K53:K70" si="1">K52</f>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="17"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="3">
+        <f>A53+10</f>
+        <v>40</v>
+      </c>
+      <c r="B54" s="4">
+        <v>774</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="6">
+        <v>7854</v>
+      </c>
+      <c r="E54" s="7">
+        <f>4014+240+227</f>
+        <v>4481</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J54" s="3">
+        <v>40</v>
+      </c>
+      <c r="K54" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L54" s="3">
+        <f>(D71/1000)+(K54*(J54/K50))</f>
+        <v>11.06</v>
+      </c>
+      <c r="M54" s="3">
+        <f>E71/1000 + (B71/1000)*(J54/K50) +(D71/1000)*(J54/L50)</f>
+        <v>23.530999999999999</v>
+      </c>
+      <c r="N54" s="3"/>
+      <c r="O54" s="17"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="3">
+        <f t="shared" ref="A55:A70" si="2">A54+10</f>
+        <v>50</v>
+      </c>
+      <c r="B55" s="4">
+        <v>783</v>
+      </c>
+      <c r="C55" s="5">
+        <f>1015+246+1157+2084</f>
+        <v>4502</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="I55" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J55" s="3">
+        <v>50</v>
+      </c>
+      <c r="K55" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3">
+        <f>(C71/1000)+ (B71/1000)*(J55/K50) +(D71/1000)*(J55/L50) + (E71/1000) *(J55/M50)</f>
+        <v>33.915750000000003</v>
+      </c>
+      <c r="O55" s="17"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="3">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="B56" s="4">
+        <v>775</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="6">
+        <v>7853</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="I56" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J56" s="3">
+        <v>60</v>
+      </c>
+      <c r="K56" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L56" s="3">
+        <f>(D71/1000)+(K56*(J56/K50))</f>
+        <v>12.652000000000001</v>
+      </c>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="17"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="3">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B57" s="4">
+        <v>774</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="I57" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J57" s="3">
+        <v>70</v>
+      </c>
+      <c r="K57" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="17"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="3">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B58" s="4">
+        <v>774</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="6">
+        <v>7873</v>
+      </c>
+      <c r="E58" s="7">
+        <f>4034+265+296</f>
+        <v>4595</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J58" s="3">
+        <v>80</v>
+      </c>
+      <c r="K58" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L58" s="3">
+        <f>(D71/1000)+(K58*(J58/K50))</f>
+        <v>14.244</v>
+      </c>
+      <c r="M58" s="3">
+        <f>E71/1000 + (B71/1000)*(J58/K50) +(D71/1000)*(J58/L50)</f>
+        <v>42.466999999999999</v>
+      </c>
+      <c r="N58" s="3"/>
+      <c r="O58" s="17"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="3">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="I59" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J59" s="3">
+        <v>90</v>
+      </c>
+      <c r="K59" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="17"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="3"/>
+      <c r="I60" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L60" s="3">
+        <f>(D71/1000)+(K60*(J60/K50))</f>
+        <v>15.836000000000002</v>
+      </c>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3">
+        <f>(C71/1000)+ (B71/1000)*(J60/K50) +(D71/1000)*(J60/L50) + (E71/1000) *(J60/M50)</f>
+        <v>63.329499999999996</v>
+      </c>
+      <c r="O60" s="17"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="3">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="I61" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J61" s="3">
+        <v>110</v>
+      </c>
+      <c r="K61" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="17"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="3">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="I62" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J62" s="3">
+        <v>120</v>
+      </c>
+      <c r="K62" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L62" s="3">
+        <f>(D71/1000)+(K62*(J62/K50))</f>
+        <v>17.428000000000001</v>
+      </c>
+      <c r="M62" s="3">
+        <f>E71/1000 + (B71/1000)*(J62/K50) +(D71/1000)*(J62/L50)</f>
+        <v>61.402999999999999</v>
+      </c>
+      <c r="N62" s="3"/>
+      <c r="O62" s="17"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="3">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="I63" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J63" s="3">
+        <v>130</v>
+      </c>
+      <c r="K63" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="17"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="3">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="3"/>
+      <c r="I64" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J64" s="3">
+        <v>140</v>
+      </c>
+      <c r="K64" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L64" s="3">
+        <f>(D71/1000)+(K64*(J64/K50))</f>
+        <v>19.02</v>
+      </c>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="17"/>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="3">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="I65" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J65" s="3">
+        <v>150</v>
+      </c>
+      <c r="K65" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3">
+        <f>(C71/1000)+ (B71/1000)*(J65/K50) +(D71/1000)*(J65/L50) + (E71/1000) *(J65/M50)</f>
+        <v>92.743250000000003</v>
+      </c>
+      <c r="O65" s="17"/>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="3">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
+      <c r="I66" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J66" s="3">
+        <v>160</v>
+      </c>
+      <c r="K66" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L66" s="3">
+        <f>(D71/1000)+(K66*(J66/K50))</f>
+        <v>20.612000000000002</v>
+      </c>
+      <c r="M66" s="3">
+        <f>E71/1000 + (B71/1000)*(J66/K50) +(D71/1000)*(J66/L50)</f>
+        <v>80.338999999999999</v>
+      </c>
+      <c r="N66" s="3"/>
+      <c r="O66" s="17"/>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="3">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="I67" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J67" s="3">
+        <v>170</v>
+      </c>
+      <c r="K67" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="17"/>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="3">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="3"/>
+      <c r="I68" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J68" s="3">
+        <v>180</v>
+      </c>
+      <c r="K68" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L68" s="3">
+        <f>(D71/1000)+(K68*(J68/K50))</f>
+        <v>22.204000000000001</v>
+      </c>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="17"/>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="3">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="I69" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J69" s="3">
+        <v>190</v>
+      </c>
+      <c r="K69" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="17"/>
+    </row>
+    <row r="70" spans="1:15" ht="30" customHeight="1">
+      <c r="A70" s="3">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="B70" s="4">
+        <v>791</v>
+      </c>
+      <c r="C70" s="5">
+        <f>887+3583</f>
+        <v>4470</v>
+      </c>
+      <c r="D70" s="6">
+        <v>7876</v>
+      </c>
+      <c r="E70" s="7">
+        <f>3980+225+296</f>
+        <v>4501</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J70" s="20">
+        <v>200</v>
+      </c>
+      <c r="K70" s="18">
+        <f t="shared" si="1"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L70" s="18">
+        <f>(D71/1000)+(K70*(J70/K50))</f>
+        <v>23.796000000000003</v>
+      </c>
+      <c r="M70" s="18">
+        <f>E71/1000 + (B71/1000)*(J70/K50) +(D71/1000)*(J70/L50)</f>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="N70" s="18">
+        <f>(C71/1000)+ (B71/1000)*(J70/K50) +(D71/1000)*(J70/L50) + (E71/1000) *(J70/M50)</f>
+        <v>122.157</v>
+      </c>
+      <c r="O70" s="21"/>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="13">
+        <f>MAX(B50:B70)</f>
+        <v>796</v>
+      </c>
+      <c r="C71" s="13">
+        <f t="shared" ref="C71:E71" si="3">MAX(C50:C70)</f>
+        <v>4502</v>
+      </c>
+      <c r="D71" s="13">
+        <f t="shared" si="3"/>
+        <v>7876</v>
+      </c>
+      <c r="E71" s="13">
+        <f t="shared" si="3"/>
+        <v>4595</v>
+      </c>
+      <c r="I71" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="J71" s="37"/>
+      <c r="K71" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O71" s="38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="15.75" thickBot="1">
+      <c r="I72" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="J72" s="35"/>
+      <c r="K72" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="L72" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="M72" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="N72" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O72" s="39"/>
+    </row>
+    <row r="83" spans="9:15" ht="15.75" thickBot="1"/>
+    <row r="84" spans="9:15">
+      <c r="I84" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J84" s="32"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="32"/>
+      <c r="O84" s="32"/>
+    </row>
+    <row r="85" spans="9:15">
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="33"/>
+      <c r="N85" s="33"/>
+      <c r="O85" s="33"/>
+    </row>
+    <row r="86" spans="9:15">
+      <c r="I86" s="23"/>
+    </row>
+    <row r="87" spans="9:15" ht="15" customHeight="1">
+      <c r="I87" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="9:15">
+      <c r="I88" s="24"/>
+    </row>
+    <row r="89" spans="9:15">
+      <c r="I89" s="24"/>
+    </row>
+    <row r="90" spans="9:15">
+      <c r="I90" s="24"/>
+    </row>
+    <row r="91" spans="9:15">
+      <c r="I91" s="24"/>
+    </row>
+    <row r="92" spans="9:15">
+      <c r="I92" s="24"/>
+    </row>
+    <row r="93" spans="9:15">
+      <c r="I93" s="24"/>
+    </row>
+    <row r="94" spans="9:15">
+      <c r="I94" s="24"/>
+    </row>
+    <row r="95" spans="9:15">
+      <c r="I95" s="24"/>
+    </row>
+    <row r="96" spans="9:15">
+      <c r="I96" s="24"/>
+    </row>
+    <row r="97" spans="9:9">
+      <c r="I97" s="24"/>
+    </row>
+    <row r="98" spans="9:9">
+      <c r="I98" s="24"/>
+    </row>
+    <row r="99" spans="9:9">
+      <c r="I99" s="24"/>
+    </row>
+    <row r="100" spans="9:9">
+      <c r="I100" s="23"/>
+    </row>
+    <row r="101" spans="9:9">
+      <c r="I101" s="23"/>
+    </row>
+    <row r="102" spans="9:9">
+      <c r="I102" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="9:9">
+      <c r="I103" s="24"/>
+    </row>
+    <row r="104" spans="9:9">
+      <c r="I104" s="24"/>
+    </row>
+    <row r="105" spans="9:9">
+      <c r="I105" s="24"/>
+    </row>
+    <row r="106" spans="9:9">
+      <c r="I106" s="24"/>
+    </row>
+    <row r="107" spans="9:9">
+      <c r="I107" s="24"/>
+    </row>
+    <row r="108" spans="9:9">
+      <c r="I108" s="24"/>
+    </row>
+    <row r="109" spans="9:9">
+      <c r="I109" s="24"/>
+    </row>
+    <row r="110" spans="9:9">
+      <c r="I110" s="24"/>
+    </row>
+    <row r="111" spans="9:9">
+      <c r="I111" s="24"/>
+    </row>
+    <row r="112" spans="9:9">
+      <c r="I112" s="24"/>
+    </row>
+    <row r="113" spans="9:9">
+      <c r="I113" s="24"/>
+    </row>
+    <row r="114" spans="9:9">
+      <c r="I114" s="24"/>
+    </row>
+    <row r="115" spans="9:9">
+      <c r="I115" s="24"/>
+    </row>
+    <row r="116" spans="9:9">
+      <c r="I116" s="24"/>
+    </row>
+    <row r="117" spans="9:9">
+      <c r="I117" s="24"/>
+    </row>
+    <row r="118" spans="9:9">
+      <c r="I118" s="23"/>
+    </row>
+    <row r="119" spans="9:9">
+      <c r="I119" s="23"/>
+    </row>
+    <row r="120" spans="9:9">
+      <c r="I120" s="23"/>
+    </row>
+    <row r="121" spans="9:9">
+      <c r="I121" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="122" spans="9:9">
+      <c r="I122" s="24"/>
+    </row>
+    <row r="123" spans="9:9">
+      <c r="I123" s="24"/>
+    </row>
+    <row r="124" spans="9:9">
+      <c r="I124" s="24"/>
+    </row>
+    <row r="125" spans="9:9">
+      <c r="I125" s="24"/>
+    </row>
+    <row r="126" spans="9:9">
+      <c r="I126" s="24"/>
+    </row>
+    <row r="127" spans="9:9">
+      <c r="I127" s="24"/>
+    </row>
+    <row r="128" spans="9:9">
+      <c r="I128" s="24"/>
+    </row>
+    <row r="129" spans="9:9">
+      <c r="I129" s="24"/>
+    </row>
+    <row r="130" spans="9:9">
+      <c r="I130" s="24"/>
+    </row>
+    <row r="131" spans="9:9">
+      <c r="I131" s="24"/>
+    </row>
+    <row r="132" spans="9:9">
+      <c r="I132" s="24"/>
+    </row>
+    <row r="133" spans="9:9">
+      <c r="I133" s="24"/>
+    </row>
+    <row r="134" spans="9:9">
+      <c r="I134" s="24"/>
+    </row>
+    <row r="135" spans="9:9">
+      <c r="I135" s="24"/>
+    </row>
+    <row r="136" spans="9:9">
+      <c r="I136" s="24"/>
+    </row>
+    <row r="137" spans="9:9">
+      <c r="I137" s="24"/>
+    </row>
+    <row r="138" spans="9:9">
+      <c r="I138" s="24"/>
+    </row>
+    <row r="139" spans="9:9">
+      <c r="I139" s="24"/>
+    </row>
+    <row r="140" spans="9:9">
+      <c r="I140" s="24"/>
+    </row>
+    <row r="141" spans="9:9">
+      <c r="I141" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I19:O20"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="I40:O41"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="I32:J33"/>
+    <mergeCell ref="M32:O33"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="I102:I117"/>
+    <mergeCell ref="I87:I99"/>
+    <mergeCell ref="I121:I141"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="I47:O47"/>
+    <mergeCell ref="I48:O48"/>
+    <mergeCell ref="I84:O85"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="O71:O72"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27472322-B058-43E0-B473-93A72FD3F7DD}">
   <dimension ref="A3:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="2"/>
+      <c r="B6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3">
         <v>0</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>13.3</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>24.6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>15.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="26" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+    <row r="8" spans="1:12" ht="38.25">
+      <c r="A8" s="3">
         <v>10</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>13.5</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="I8" s="13" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="I8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+    <row r="9" spans="1:12">
+      <c r="A9" s="3">
         <v>20</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>13.5</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="7">
+      <c r="C9" s="3"/>
+      <c r="D9" s="6">
         <v>25.15</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="I9" s="2" t="s">
+      <c r="E9" s="3"/>
+      <c r="I9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>10</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <f>MAX(B7:B27)</f>
         <v>14</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <f>(200/J9)*K9*(1/1000)</f>
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
         <v>30</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>13.35</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="I10" s="2" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="I10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>50</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f>MAX(C7:C27)</f>
         <v>24.9</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <f t="shared" ref="L10:L12" si="0">(200/J10)*K10*(1/1000)</f>
         <v>9.9599999999999994E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
         <f>A10+10</f>
         <v>40</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>13.9</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="7">
+      <c r="C11" s="3"/>
+      <c r="D11" s="6">
         <v>25</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>15.78</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>20</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f>MAX(D7:D27)</f>
         <v>25.2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <f t="shared" si="0"/>
         <v>0.252</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
         <f t="shared" ref="A12:A27" si="1">A11+10</f>
         <v>50</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>13.38</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>24.9</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="I12" s="2" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="I12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>40</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <f>MAX(E7:E27)</f>
         <v>15.78</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <f t="shared" si="0"/>
         <v>7.8899999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>13.4</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="7">
+      <c r="C13" s="3"/>
+      <c r="D13" s="6">
         <v>25.2</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="I13" s="15" t="s">
+      <c r="E13" s="3"/>
+      <c r="I13" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="4">
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="3">
         <f>SUM(L9:L12)</f>
         <v>0.71050000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>13.6</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="I14" s="16" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="I14" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="4">
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="3">
         <f>(L13/200) *100</f>
         <v>0.35525000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.4">
-      <c r="A15" s="4">
+    <row r="15" spans="1:12" ht="18">
+      <c r="A15" s="3">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>14</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="7">
+      <c r="C15" s="3"/>
+      <c r="D15" s="6">
         <v>25</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>15.4</v>
       </c>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>13.6</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+    <row r="20" spans="1:5">
+      <c r="A20" s="3">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
+    <row r="24" spans="1:5">
+      <c r="A24" s="3">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
     </row>
